--- a/2020/January/All Details/16.01.2020/MC Balance Transfer Jan'2020.xlsx
+++ b/2020/January/All Details/16.01.2020/MC Balance Transfer Jan'2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\15.01.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\16.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD1412-7D20-45B6-9C95-144C82CDDE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7F6E6F-410A-42F9-8307-56BD6193494B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -308,6 +308,24 @@
   </si>
   <si>
     <t>S.A Mobile Mart</t>
+  </si>
+  <si>
+    <t>16.01.2020</t>
+  </si>
+  <si>
+    <t>Naimul</t>
+  </si>
+  <si>
+    <t>ZSM</t>
+  </si>
+  <si>
+    <t>Jony Coto</t>
+  </si>
+  <si>
+    <t>Sarkar Dyarampur</t>
+  </si>
+  <si>
+    <t>Umor Desh</t>
   </si>
 </sst>
 </file>
@@ -1609,9 +1627,9 @@
   <dimension ref="A1:BI232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2922,14 +2940,14 @@
         <v>319545</v>
       </c>
       <c r="C18" s="2">
-        <v>304890</v>
+        <v>303890</v>
       </c>
       <c r="D18" s="2">
         <v>1540</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>306430</v>
+        <v>305430</v>
       </c>
       <c r="F18" s="135"/>
       <c r="G18" s="112"/>
@@ -2995,21 +3013,33 @@
       <c r="BI18" s="7"/>
     </row>
     <row r="19" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2">
+        <v>495290</v>
+      </c>
+      <c r="C19" s="2">
+        <v>280390</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1650</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>282040</v>
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="19"/>
       <c r="H19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
+      <c r="I19" s="64">
+        <v>390</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>81</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="19"/>
       <c r="M19" s="7"/>
@@ -4018,23 +4048,23 @@
       </c>
       <c r="B34" s="2">
         <f>SUM(B6:B33)</f>
-        <v>3870675</v>
+        <v>4365965</v>
       </c>
       <c r="C34" s="2">
         <f>SUM(C6:C33)</f>
-        <v>3956347</v>
+        <v>4235737</v>
       </c>
       <c r="D34" s="2">
         <f>SUM(D6:D33)</f>
-        <v>14372</v>
+        <v>16022</v>
       </c>
       <c r="E34" s="2">
         <f>SUM(E6:E33)</f>
-        <v>3970719</v>
+        <v>4251759</v>
       </c>
       <c r="F34" s="94">
         <f>B34-E34</f>
-        <v>-100044</v>
+        <v>114206</v>
       </c>
       <c r="G34" s="114"/>
       <c r="H34" s="124"/>
@@ -4518,7 +4548,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>59</v>
@@ -4582,10 +4612,18 @@
       <c r="BI41" s="7"/>
     </row>
     <row r="42" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2">
+        <v>11080</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4080</v>
+      </c>
       <c r="E42" s="20"/>
       <c r="F42" s="135"/>
       <c r="G42" s="116"/>
@@ -4715,10 +4753,16 @@
       <c r="BI43" s="7"/>
     </row>
     <row r="44" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E44" s="6" t="s">
         <v>12</v>
       </c>
@@ -4785,7 +4829,7 @@
       <c r="A45" s="73"/>
       <c r="B45" s="74"/>
       <c r="C45" s="75">
-        <v>1679</v>
+        <v>11054</v>
       </c>
       <c r="D45" s="76"/>
       <c r="E45" s="3"/>
@@ -5114,10 +5158,10 @@
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="98">
-        <v>98800</v>
+        <v>99720</v>
       </c>
       <c r="D50" s="99" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="12"/>
@@ -5248,10 +5292,10 @@
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="98">
-        <v>227345</v>
+        <v>406810</v>
       </c>
       <c r="D52" s="99" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="43"/>
@@ -5317,7 +5361,7 @@
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="98">
-        <v>190825</v>
+        <v>190325</v>
       </c>
       <c r="D53" s="102" t="s">
         <v>77</v>
@@ -5386,10 +5430,10 @@
       </c>
       <c r="B54" s="97"/>
       <c r="C54" s="106">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="D54" s="99" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="64"/>
@@ -5792,14 +5836,14 @@
     </row>
     <row r="60" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="100" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B60" s="43"/>
       <c r="C60" s="98">
-        <v>63590</v>
+        <v>52510</v>
       </c>
       <c r="D60" s="107" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="43"/>
@@ -5865,10 +5909,10 @@
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="98">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D61" s="99" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="43"/>
@@ -5929,10 +5973,16 @@
       <c r="BI61" s="7"/>
     </row>
     <row r="62" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="100"/>
+      <c r="A62" s="100" t="s">
+        <v>85</v>
+      </c>
       <c r="B62" s="43"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="99"/>
+      <c r="C62" s="98">
+        <v>6890</v>
+      </c>
+      <c r="D62" s="99" t="s">
+        <v>81</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="19"/>
       <c r="G62" s="8"/>
@@ -5992,10 +6042,16 @@
       <c r="BI62" s="7"/>
     </row>
     <row r="63" spans="1:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="100"/>
+      <c r="A63" s="100" t="s">
+        <v>79</v>
+      </c>
       <c r="B63" s="43"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="99"/>
+      <c r="C63" s="98">
+        <v>11000</v>
+      </c>
+      <c r="D63" s="99" t="s">
+        <v>81</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="160" t="s">
         <v>28</v>
@@ -8559,7 +8615,7 @@
       <c r="B99" s="159"/>
       <c r="C99" s="45">
         <f>SUM(C38:C98)</f>
-        <v>1378166</v>
+        <v>1592416</v>
       </c>
       <c r="D99" s="41"/>
       <c r="F99" s="23"/>
@@ -8694,7 +8750,7 @@
       <c r="B101" s="157"/>
       <c r="C101" s="42">
         <f>C99+L122</f>
-        <v>1378166</v>
+        <v>1592416</v>
       </c>
       <c r="D101" s="26"/>
       <c r="F101" s="24"/>
